--- a/Aula 02/Mesa_2.xlsx
+++ b/Aula 02/Mesa_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Barbosa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Virtual\Vitual Machines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E896BFD0-1328-404D-A84D-1E9A5AE40CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122D1CC3-71FA-4D69-98BF-56CB3FB3CBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="1860" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDB86BC-AEA1-454D-B2ED-D56BAA6168F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{FFDB86BC-AEA1-454D-B2ED-D56BAA6168F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -125,12 +124,38 @@
   <si>
     <t>https://demoqa.com/automation-practice-form</t>
   </si>
+  <si>
+    <t>002 - Teste02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foot não responde </t>
+  </si>
+  <si>
+    <t>Footer da Pagina possuí um botão de recolher que não responde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footer </t>
+  </si>
+  <si>
+    <t>1) Entrar no Site 
+2) ir até o Footer da Pagina 
+3) clicar em recolher</t>
+  </si>
+  <si>
+    <t>Ao Clicar seria esperado que o footer diminuisse para a possição correta.</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>Novo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +167,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -184,11 +217,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,9 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,8 +311,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -557,24 +650,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4228245-B93E-4405-ABC1-27D742E6AF03}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.140625" style="2" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="2"/>
     <col min="14" max="14" width="13.85546875" style="2" customWidth="1"/>
@@ -582,78 +675,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="375" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="9">
         <v>44698</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -668,13 +761,62 @@
       <c r="M2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="19" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="11"/>
     </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9">
+        <v>44698</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="24"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{8C4DB718-B8EA-4007-A305-C34510A44D84}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{11335C07-ED34-454A-AC25-252975DAF399}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>